--- a/E17-03-VCU/E17-03-VCU BOM.xlsx
+++ b/E17-03-VCU/E17-03-VCU BOM.xlsx
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
